--- a/biology/Médecine/White_Memorial_Medical_Center/White_Memorial_Medical_Center.xlsx
+++ b/biology/Médecine/White_Memorial_Medical_Center/White_Memorial_Medical_Center.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le White Memorial Medical Center est un hôpital situé dans le quartier de Boyle Heights à Los Angeles en Californie. Il est la propriété de l'église adventiste du septième jour. Le White Memorial Medical Center (WMMC) est un hôpital universitaire gratuit, à volonté missionnaire, qui propose des services complets aux habitants dans et près du centre-ville de Los Angeles.
@@ -514,7 +526,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « White Memorial Medical Center » (voir la liste des auteurs).</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Site officiel
  Portail de la médecine   Portail de la Californie   Portail de Los Angeles   Portail des États-Unis                  </t>
